--- a/workdir/advisor_sri.xlsx
+++ b/workdir/advisor_sri.xlsx
@@ -21,20 +21,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="187">
   <si>
     <t>FINANCIAL DASHBOARD</t>
   </si>
   <si>
+    <t>Go to Income</t>
+  </si>
+  <si>
+    <t>Go to Expenses</t>
+  </si>
+  <si>
+    <t>Go to Assets</t>
+  </si>
+  <si>
+    <t>Go to Liabilities</t>
+  </si>
+  <si>
+    <t>Go to Goals</t>
+  </si>
+  <si>
     <t>NET WORTH SUMMARY</t>
   </si>
   <si>
     <t>Total Assets</t>
   </si>
   <si>
+    <t>→ View Assets</t>
+  </si>
+  <si>
     <t>Total Liabilities</t>
   </si>
   <si>
+    <t>→ View Liabilities</t>
+  </si>
+  <si>
     <t>Net Worth</t>
   </si>
   <si>
@@ -44,9 +65,15 @@
     <t>Total Income</t>
   </si>
   <si>
+    <t>→ View Income</t>
+  </si>
+  <si>
     <t>Total Expenses</t>
   </si>
   <si>
+    <t>→ View Expenses</t>
+  </si>
+  <si>
     <t>Monthly Surplus</t>
   </si>
   <si>
@@ -56,12 +83,36 @@
     <t>Goals Defined</t>
   </si>
   <si>
+    <t>→ View Goals</t>
+  </si>
+  <si>
     <t>Total Goal Amount</t>
   </si>
   <si>
+    <t>FINANCIAL RATIOS</t>
+  </si>
+  <si>
+    <t>Debt-to-Income Ratio</t>
+  </si>
+  <si>
+    <t>Savings Rate</t>
+  </si>
+  <si>
+    <t>Asset-to-Liability Ratio</t>
+  </si>
+  <si>
     <t>MONTHLY INCOME TRACKER</t>
   </si>
   <si>
+    <t>← Back to Dashboard</t>
+  </si>
+  <si>
+    <t>View Expenses →</t>
+  </si>
+  <si>
+    <t>View Assets →</t>
+  </si>
+  <si>
     <t>Income Source</t>
   </si>
   <si>
@@ -107,9 +158,21 @@
     <t>TOTAL MONTHLY INCOME</t>
   </si>
   <si>
+    <t>This total appears in Dashboard B10</t>
+  </si>
+  <si>
+    <t>Monthly Surplus = Income - Expenses</t>
+  </si>
+  <si>
     <t>MONTHLY EXPENSE TRACKER</t>
   </si>
   <si>
+    <t>← View Income</t>
+  </si>
+  <si>
+    <t>View Liabilities →</t>
+  </si>
+  <si>
     <t>Expense Category</t>
   </si>
   <si>
@@ -182,6 +245,15 @@
     <t>TOTAL MONTHLY EXPENSES</t>
   </si>
   <si>
+    <t>This total appears in Dashboard B11</t>
+  </si>
+  <si>
+    <t>Available for Investment</t>
+  </si>
+  <si>
+    <t>Expense-to-Income Ratio</t>
+  </si>
+  <si>
     <t>ASSET PORTFOLIO</t>
   </si>
   <si>
@@ -248,9 +320,21 @@
     <t>TOTAL ASSETS</t>
   </si>
   <si>
+    <t>This total appears in Dashboard B5</t>
+  </si>
+  <si>
+    <t>Net Worth = Assets - Liabilities</t>
+  </si>
+  <si>
+    <t>Asset Growth Target (10% annually)</t>
+  </si>
+  <si>
     <t>LIABILITY PORTFOLIO</t>
   </si>
   <si>
+    <t>← View Assets</t>
+  </si>
+  <si>
     <t>Liability Type</t>
   </si>
   <si>
@@ -294,6 +378,15 @@
   </si>
   <si>
     <t>TOTAL LIABILITIES</t>
+  </si>
+  <si>
+    <t>This total appears in Dashboard B6</t>
+  </si>
+  <si>
+    <t>Debt-to-Asset Ratio</t>
+  </si>
+  <si>
+    <t>Monthly Debt Service (Est. 10%)</t>
   </si>
   <si>
     <t>FINANCIAL GOALS PLANNER</t>
@@ -499,7 +592,7 @@
     <numFmt numFmtId="164" formatCode="₹#,##0"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +610,14 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -524,7 +625,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,12 +640,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -567,13 +674,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -582,7 +707,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -880,107 +1005,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4">
+        <f>Assets!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <f>Liabilities!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <f>B5-B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <f>Income!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4">
+        <f>Expenses!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5">
+        <f>B10-B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3">
+        <f>COUNTA(Goals!A3:A12)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4">
+        <f>SUM(Goals!D3:D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="6">
+        <f>B6/B10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6">
+        <f>B12/B10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3">
+        <f>B5/B6</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <f>Assets!B20</f>
-        <v>0</v>
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <f>Liabilities!B15</f>
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
+      <c r="A6" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B6" s="4">
-        <f>B4-B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <f>Income!B15</f>
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <f>Expenses!B25</f>
+      <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
+      <c r="A11" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B11" s="4">
-        <f>B9-B10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <f>COUNTA(Goals!A3:A12)</f>
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3">
-        <f>SUM(Goals!D3:D12)</f>
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="5">
+        <f>SUM(B5:B16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B17-Expenses!B27</f>
         <v>0</v>
       </c>
     </row>
@@ -992,359 +1356,255 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="B15" s="4">
-        <f>SUM(B3:B14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="5">
+        <f>SUM(B5:B26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="4">
+        <f>Income!B17-B27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="6">
+        <f>B27/Income!B17</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="4">
-        <f>SUM(B3:B24)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1352,178 +1612,221 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="A17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="A18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="3">
+      <c r="A19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>74</v>
+      <c r="A20" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B20" s="4">
-        <f>SUM(B3:B19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="5">
+        <f>SUM(B5:B22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B23-Liabilities!B17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="4">
+        <f>B23*1.1</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1531,138 +1834,182 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>90</v>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B15" s="4">
-        <f>SUM(B3:B14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="5">
+        <f>SUM(B5:B16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="4">
+        <f>Assets!B23-B17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="6">
+        <f>B17/Assets!B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="4">
+        <f>B17*0.1/12</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1685,7 +2032,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1697,298 +2044,298 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="3">
         <v>10</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>0.06</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>1000000</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <f>PMT(G3/12,B3*12,-E3,D3)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <v>0.12</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>101</v>
+      <c r="H3" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>0.06</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>1000000</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <f>PMT(G4/12,B4*12,-E4,D4)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>0.12</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>101</v>
+      <c r="H4" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="3">
         <v>10</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>0.06</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>1000000</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <f>PMT(G5/12,B5*12,-E5,D5)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <v>0.12</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>101</v>
+      <c r="H5" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="3">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>0.06</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>1000000</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
         <f>PMT(G6/12,B6*12,-E6,D6)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <v>0.12</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>101</v>
+      <c r="H6" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>0.06</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>1000000</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <f>PMT(G7/12,B7*12,-E7,D7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <v>0.12</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>101</v>
+      <c r="H7" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="3">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>0.06</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>1000000</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <f>PMT(G8/12,B8*12,-E8,D8)</f>
         <v>0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <v>0.12</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>101</v>
+      <c r="H8" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="3">
         <v>10</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>0.06</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>1000000</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
         <f>PMT(G9/12,B9*12,-E9,D9)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <v>0.12</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>101</v>
+      <c r="H9" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="3">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>0.06</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>1000000</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
         <f>PMT(G10/12,B10*12,-E10,D10)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <v>0.12</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>101</v>
+      <c r="H10" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>0.06</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>1000000</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
         <f>PMT(G11/12,B11*12,-E11,D11)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>0.12</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>101</v>
+      <c r="H11" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>0.06</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>1000000</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
         <f>PMT(G12/12,B12*12,-E12,D12)</f>
         <v>0</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <v>0.12</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>101</v>
+      <c r="H12" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2014,88 +2361,88 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>112</v>
+      <c r="A3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>114</v>
+      <c r="A4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>116</v>
+      <c r="A5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="3">
         <f>B9-B8</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="4">
         <f>Dashboard!B11</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="A13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="6">
         <f>Liabilities!B15/Income!B15</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="6">
         <f>Dashboard!B11/Income!B15</f>
         <v>0</v>
       </c>
@@ -2124,7 +2471,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2132,142 +2479,142 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>156</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>134</v>
+        <v>163</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>166</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>140</v>
+        <v>169</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>143</v>
+        <v>172</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>146</v>
+        <v>175</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>149</v>
+        <v>178</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>152</v>
+        <v>181</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>155</v>
+        <v>184</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/workdir/advisor_sri.xlsx
+++ b/workdir/advisor_sri.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="191">
   <si>
     <t>FINANCIAL DASHBOARD</t>
   </si>
@@ -392,34 +392,46 @@
     <t>FINANCIAL GOALS PLANNER</t>
   </si>
   <si>
+    <t>Mandatory / Optional</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
     <t>Goal Name</t>
   </si>
   <si>
-    <t>Years to Goal</t>
+    <t>Time to Achieve (in Years)</t>
+  </si>
+  <si>
+    <t>Today's Value</t>
   </si>
   <si>
     <t>Inflation %</t>
   </si>
   <si>
-    <t>Future Value Needed (₹)</t>
-  </si>
-  <si>
-    <t>Current Savings (₹)</t>
-  </si>
-  <si>
-    <t>Monthly SIP Required (₹)</t>
-  </si>
-  <si>
-    <t>Expected Return %</t>
-  </si>
-  <si>
-    <t>Status</t>
+    <t>Future Value</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>Deficit</t>
+  </si>
+  <si>
+    <t>Expected Rate of Return %</t>
+  </si>
+  <si>
+    <t>Monthly Investment Required</t>
+  </si>
+  <si>
+    <t>Actual Investment being started</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
   </si>
   <si>
     <t>Child Education</t>
-  </si>
-  <si>
-    <t>Planning</t>
   </si>
   <si>
     <t>Child Marriage</t>
@@ -1142,7 +1154,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="4">
-        <f>SUM(Goals!D3:D12)</f>
+        <f>SUM(Goals!G3:G12)</f>
         <v>0</v>
       </c>
     </row>
@@ -2017,20 +2029,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -2041,306 +2057,424 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="G2" s="4">
+        <f>E2*POWER(1+F2,D2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <f>G2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="K2" s="4">
+        <f>PMT(J2/12,D2*12,0,-I2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="3">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="E3" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F3" s="6">
         <v>0.06</v>
       </c>
-      <c r="D3" s="4">
+      <c r="G3" s="4">
+        <f>E3*POWER(1+F3,D3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <f>G3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="K3" s="4">
+        <f>PMT(J3/12,D3*12,0,-I3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4">
         <v>1000000</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <f>PMT(G3/12,B3*12,-E3,D3)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F4" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="G4" s="4">
+        <f>E4*POWER(1+F4,D4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <f>G4-H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
         <v>0.12</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="K4" s="4">
+        <f>PMT(J4/12,D4*12,0,-I4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="3">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
+      <c r="E5" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="6">
         <v>0.06</v>
       </c>
-      <c r="D4" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <f>PMT(G4/12,B4*12,-E4,D4)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="G5" s="4">
+        <f>E5*POWER(1+F5,D5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <f>G5-H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
         <v>0.12</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="3">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <f>PMT(G5/12,B5*12,-E5,D5)</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="K5" s="4">
+        <f>PMT(J5/12,D5*12,0,-I5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="C6" s="6">
+      <c r="E6" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F6" s="6">
         <v>0.06</v>
       </c>
-      <c r="D6" s="4">
+      <c r="G6" s="4">
+        <f>E6*POWER(1+F6,D6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <f>G6-H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="K6" s="4">
+        <f>PMT(J6/12,D6*12,0,-I6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
         <v>1000000</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <f>PMT(G6/12,B6*12,-E6,D6)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F7" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="G7" s="4">
+        <f>E7*POWER(1+F7,D7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <f>G7-H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
         <v>0.12</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="K7" s="4">
+        <f>PMT(J7/12,D7*12,0,-I7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="3">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
+      <c r="E8" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F8" s="6">
         <v>0.06</v>
       </c>
-      <c r="D7" s="4">
+      <c r="G8" s="4">
+        <f>E8*POWER(1+F8,D8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <f>G8-H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="K8" s="4">
+        <f>PMT(J8/12,D8*12,0,-I8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
         <v>1000000</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <f>PMT(G7/12,B7*12,-E7,D7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F9" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="G9" s="4">
+        <f>E9*POWER(1+F9,D9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <f>G9-H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
         <v>0.12</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="K9" s="4">
+        <f>PMT(J9/12,D9*12,0,-I9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="3">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
+      <c r="E10" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F10" s="6">
         <v>0.06</v>
       </c>
-      <c r="D8" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <f>PMT(G8/12,B8*12,-E8,D8)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="G10" s="4">
+        <f>E10*POWER(1+F10,D10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f>G10-H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
         <v>0.12</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="3">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <f>PMT(G9/12,B9*12,-E9,D9)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="3">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <f>PMT(G10/12,B10*12,-E10,D10)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="K10" s="4">
+        <f>PMT(J10/12,D10*12,0,-I10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F11" s="6">
         <v>0.06</v>
       </c>
-      <c r="D11" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <f>PMT(G11/12,B11*12,-E11,D11)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="G11" s="4">
+        <f>E11*POWER(1+F11,D11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f>G11-H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
         <v>0.12</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1000000</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <f>PMT(G12/12,B12*12,-E12,D12)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.12</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>132</v>
+      <c r="K11" s="4">
+        <f>PMT(J11/12,D11*12,0,-I11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2361,43 +2495,43 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B8" s="3">
         <v>30</v>
@@ -2405,7 +2539,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B9" s="3">
         <v>60</v>
@@ -2413,7 +2547,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B10" s="3">
         <f>B9-B8</f>
@@ -2422,7 +2556,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B12" s="4">
         <f>Dashboard!B11</f>
@@ -2431,7 +2565,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B13" s="6">
         <f>Liabilities!B15/Income!B15</f>
@@ -2440,7 +2574,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B14" s="6">
         <f>Dashboard!B11/Income!B15</f>
@@ -2471,7 +2605,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2479,142 +2613,142 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
